--- a/Input/Shell_3D.xlsx
+++ b/Input/Shell_3D.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/Shell - MOD1/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Dynamic-Torque-and-Drag-Model/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="930" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4A62BB-9CFB-4299-AFC1-B74B77533AC7}"/>
+  <xr:revisionPtr revIDLastSave="1119" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B6C6CA-89A7-40BE-84BC-42BEF6077E60}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3270" windowWidth="21600" windowHeight="11295" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
-    <sheet name="BHA_simpl" sheetId="13" r:id="rId2"/>
-    <sheet name="BHA" sheetId="1" r:id="rId3"/>
+    <sheet name="BHA" sheetId="13" r:id="rId2"/>
+    <sheet name="BHA_OG" sheetId="1" r:id="rId3"/>
     <sheet name="BHA_REST1" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="BHA_REST2" sheetId="8" state="hidden" r:id="rId5"/>
     <sheet name="Borehole_Properties" sheetId="12" r:id="rId6"/>
     <sheet name="ADVANCED" sheetId="11" r:id="rId7"/>
-    <sheet name="PUMP" sheetId="14" r:id="rId8"/>
-    <sheet name="TOP_DRIVE" sheetId="10" r:id="rId9"/>
+    <sheet name="TOP_DRIVE" sheetId="10" r:id="rId8"/>
+    <sheet name="PUMP" sheetId="14" r:id="rId9"/>
     <sheet name="steady_state_inputs" sheetId="9" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="112">
   <si>
     <t>BHA Type</t>
   </si>
@@ -140,9 +140,6 @@
     <t>cP</t>
   </si>
   <si>
-    <t>lbf/100ft^2</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -191,12 +188,6 @@
     <t>a4</t>
   </si>
   <si>
-    <t>Top Drive RPM Magnitude 1 (RPM)</t>
-  </si>
-  <si>
-    <t>Top Drive RPM Magnitude 2 (RPM)</t>
-  </si>
-  <si>
     <t>b1</t>
   </si>
   <si>
@@ -264,12 +255,6 @@
   </si>
   <si>
     <t>Element Length</t>
-  </si>
-  <si>
-    <t>Top Drive Axial Velocity Magnitude 1 (ft/min)</t>
-  </si>
-  <si>
-    <t>Top Drive Axial Velocity Magnitude 2 (ft/min)</t>
   </si>
   <si>
     <t>Shear Modulus</t>
@@ -367,6 +352,36 @@
   </si>
   <si>
     <t>GPM</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Top Drive Weight</t>
+  </si>
+  <si>
+    <t>ft/min</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>lbf</t>
+  </si>
+  <si>
+    <t>Top Drive ROP 1</t>
+  </si>
+  <si>
+    <t>Top Drive ROP 2</t>
+  </si>
+  <si>
+    <t>Top Drive RPM 1</t>
+  </si>
+  <si>
+    <t>Top Drive RPM 2</t>
   </si>
 </sst>
 </file>
@@ -816,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB77188-32FA-43EE-BD2E-FA6085E2DDB4}">
   <dimension ref="A1:D687"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,34 +4850,34 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>1500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -4941,7 +4956,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4961,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -4996,17 +5011,17 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>94.65</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E3" si="0">E3+D2</f>
-        <v>4883.7099999999991</v>
+        <v>5050</v>
       </c>
       <c r="F2" s="1">
         <v>5.875</v>
@@ -5022,7 +5037,7 @@
       </c>
       <c r="J2" s="1">
         <f>26.87*D2</f>
-        <v>2543.2455000000004</v>
+        <v>2687</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
@@ -5036,18 +5051,18 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6">
-        <f>165.14*C3</f>
-        <v>1486.2599999999998</v>
+        <f>165*C3</f>
+        <v>1650</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>4789.0599999999995</v>
+        <v>4950</v>
       </c>
       <c r="F3">
         <v>7.3880344827586208</v>
@@ -5063,7 +5078,7 @@
       </c>
       <c r="J3" s="1">
         <f>D3*48.967</f>
-        <v>72777.693419999981</v>
+        <v>80795.55</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -5077,18 +5092,18 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
       </c>
       <c r="D4" s="6">
-        <f>165.14*C4</f>
-        <v>3302.7999999999997</v>
+        <f>165*C4</f>
+        <v>3300</v>
       </c>
       <c r="E4">
         <f>E5+D4</f>
-        <v>3302.7999999999997</v>
+        <v>3300</v>
       </c>
       <c r="F4">
         <v>7.3880344827586208</v>
@@ -5104,7 +5119,7 @@
       </c>
       <c r="J4">
         <f>D4*48.967</f>
-        <v>161728.20759999999</v>
+        <v>161591.1</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -5358,7 +5373,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5378,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -5413,7 +5428,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5453,7 +5468,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -5492,7 +5507,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -5531,7 +5546,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -5570,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1">
         <v>27</v>
@@ -5609,7 +5624,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -5654,7 +5669,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -5693,7 +5708,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -5738,7 +5753,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -5783,7 +5798,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -5822,7 +5837,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -5861,7 +5876,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -5900,7 +5915,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -5939,7 +5954,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -5978,7 +5993,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -6017,7 +6032,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -6053,10 +6068,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1">
         <v>29</v>
@@ -6095,7 +6110,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -6134,7 +6149,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -6173,7 +6188,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -6212,7 +6227,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -6251,7 +6266,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -6290,7 +6305,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -6329,7 +6344,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -6368,7 +6383,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -6407,7 +6422,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -6446,7 +6461,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -6485,7 +6500,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -6524,7 +6539,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -6563,7 +6578,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -6604,7 +6619,7 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x15:webExtension appRef="{87EA3DA5-FE09-4B3B-9077-C185D2B108E9}">
-          <xm:f>BHA!1:1048576</xm:f>
+          <xm:f>BHA_OG!1:1048576</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
@@ -7526,10 +7541,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72B133-B881-4CF1-A552-650940017511}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7548,12 +7563,12 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>9.4</v>
@@ -7564,7 +7579,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>65.5</v>
@@ -7589,63 +7604,72 @@
         <v>29</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1">
         <f>15000</f>
         <v>15000</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="1"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7658,7 +7682,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7677,84 +7701,84 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>12.25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>14000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="9">
         <v>79300000000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9">
         <v>210000000000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="1">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7771,51 +7795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C009D14-4CAD-45E6-8E8F-499046D46D50}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF5AC9-A478-4C3E-B910-9FDDED31D199}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF5AC9-A478-4C3E-B910-9FDDED31D199}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7823,140 +7807,228 @@
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6">
         <v>-50</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B3" s="6">
         <v>-50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6">
+        <v>65</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="6">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="6">
+        <v>80000</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7408B512-9E36-45FE-B035-588D4EB5CB81}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="6">
-        <v>120</v>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Shell_3D.xlsx
+++ b/Input/Shell_3D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Dynamic-Torque-and-Drag-Model/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1119" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B6C6CA-89A7-40BE-84BC-42BEF6077E60}"/>
+  <xr:revisionPtr revIDLastSave="1121" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C1ABF7-9AE4-487B-8099-A71E153E3A0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB77188-32FA-43EE-BD2E-FA6085E2DDB4}">
   <dimension ref="A1:D687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -7798,8 +7798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF5AC9-A478-4C3E-B910-9FDDED31D199}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C1:C19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7823,7 +7823,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="6">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>105</v>
@@ -7834,7 +7834,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="6">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>105</v>
